--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.764002</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H2">
-        <v>87.52800400000001</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I2">
-        <v>0.4562749783297458</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J2">
-        <v>0.3603824858286639</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N2">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O2">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P2">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q2">
-        <v>659.0919970802801</v>
+        <v>313.901983924056</v>
       </c>
       <c r="R2">
-        <v>2636.36798832112</v>
+        <v>1255.607935696224</v>
       </c>
       <c r="S2">
-        <v>0.3402498660384169</v>
+        <v>0.2473580025484021</v>
       </c>
       <c r="T2">
-        <v>0.2384271138340365</v>
+        <v>0.1653203051270796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.764002</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H3">
-        <v>87.52800400000001</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I3">
-        <v>0.4562749783297458</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J3">
-        <v>0.3603824858286639</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P3">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q3">
-        <v>4.832129340826667</v>
+        <v>4.703061122759999</v>
       </c>
       <c r="R3">
-        <v>28.99277604496</v>
+        <v>28.21836673655999</v>
       </c>
       <c r="S3">
-        <v>0.002494540015930911</v>
+        <v>0.003706060696546639</v>
       </c>
       <c r="T3">
-        <v>0.002622040604748238</v>
+        <v>0.003715386679592138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.764002</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H4">
-        <v>87.52800400000001</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I4">
-        <v>0.4562749783297458</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J4">
-        <v>0.3603824858286639</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N4">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O4">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P4">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q4">
-        <v>2.388420409150001</v>
+        <v>3.613891572621</v>
       </c>
       <c r="R4">
-        <v>14.3305224549</v>
+        <v>21.683349435726</v>
       </c>
       <c r="S4">
-        <v>0.001232998925577492</v>
+        <v>0.002847783851682525</v>
       </c>
       <c r="T4">
-        <v>0.001296019798370986</v>
+        <v>0.002854950054854206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.764002</v>
+        <v>42.59504699999999</v>
       </c>
       <c r="H5">
-        <v>87.52800400000001</v>
+        <v>85.19009399999999</v>
       </c>
       <c r="I5">
-        <v>0.4562749783297458</v>
+        <v>0.3319079553671214</v>
       </c>
       <c r="J5">
-        <v>0.3603824858286639</v>
+        <v>0.2500830206313156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N5">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O5">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P5">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q5">
-        <v>217.5296429890307</v>
+        <v>98.97853666437</v>
       </c>
       <c r="R5">
-        <v>1305.177857934184</v>
+        <v>593.87121998622</v>
       </c>
       <c r="S5">
-        <v>0.1122975733498204</v>
+        <v>0.07799610827049019</v>
       </c>
       <c r="T5">
-        <v>0.1180373115915082</v>
+        <v>0.0781923787697897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.253729</v>
       </c>
       <c r="I6">
-        <v>0.000881776412012686</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J6">
-        <v>0.001044688369071241</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N6">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O6">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P6">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q6">
-        <v>1.273731420686667</v>
+        <v>0.6232808905306666</v>
       </c>
       <c r="R6">
-        <v>7.642388524119999</v>
+        <v>3.739685343184</v>
       </c>
       <c r="S6">
-        <v>0.0006575515211494406</v>
+        <v>0.0004911517734961338</v>
       </c>
       <c r="T6">
-        <v>0.0006911602047499706</v>
+        <v>0.0004923877146982463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.253729</v>
       </c>
       <c r="I7">
-        <v>0.000881776412012686</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J7">
-        <v>0.001044688369071241</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P7">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q7">
         <v>0.009338354884444443</v>
@@ -889,10 +889,10 @@
         <v>0.08404519395999999</v>
       </c>
       <c r="S7">
-        <v>4.820835350037487E-06</v>
+        <v>7.358720013261026E-06</v>
       </c>
       <c r="T7">
-        <v>7.600855842687393E-06</v>
+        <v>1.106585639905778E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.253729</v>
       </c>
       <c r="I8">
-        <v>0.000881776412012686</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J8">
-        <v>0.001044688369071241</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N8">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O8">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P8">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q8">
-        <v>0.004615753391666666</v>
+        <v>0.007175709848999999</v>
       </c>
       <c r="R8">
-        <v>0.041541780525</v>
+        <v>0.06458138864099999</v>
       </c>
       <c r="S8">
-        <v>2.382838025857045E-06</v>
+        <v>5.654533408571778E-06</v>
       </c>
       <c r="T8">
-        <v>3.756943976705693E-06</v>
+        <v>8.50314383346147E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.253729</v>
       </c>
       <c r="I9">
-        <v>0.000881776412012686</v>
+        <v>0.0006590333817242832</v>
       </c>
       <c r="J9">
-        <v>0.001044688369071241</v>
+        <v>0.0007448438164860233</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N9">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O9">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P9">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q9">
-        <v>0.4203879616704445</v>
+        <v>0.19653087153</v>
       </c>
       <c r="R9">
-        <v>3.783491655034</v>
+        <v>1.76877784377</v>
       </c>
       <c r="S9">
-        <v>0.0002170212174873509</v>
+        <v>0.0001548683548063167</v>
       </c>
       <c r="T9">
-        <v>0.0003421703645018773</v>
+        <v>0.000232887101555258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.24529933333333</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H10">
-        <v>39.735898</v>
+        <v>102.121202</v>
       </c>
       <c r="I10">
-        <v>0.138092916326246</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J10">
-        <v>0.1636061722357365</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N10">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O10">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P10">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q10">
-        <v>199.4760623019067</v>
+        <v>250.8589626121654</v>
       </c>
       <c r="R10">
-        <v>1196.85637381144</v>
+        <v>1505.153775672992</v>
       </c>
       <c r="S10">
-        <v>0.1029775870087338</v>
+        <v>0.197679451201309</v>
       </c>
       <c r="T10">
-        <v>0.1082409633806303</v>
+        <v>0.1981768945410969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.24529933333333</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H11">
-        <v>39.735898</v>
+        <v>102.121202</v>
       </c>
       <c r="I11">
-        <v>0.138092916326246</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J11">
-        <v>0.1636061722357365</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P11">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q11">
-        <v>1.462457650391111</v>
+        <v>3.758514105608889</v>
       </c>
       <c r="R11">
-        <v>13.16211885352</v>
+        <v>33.82662695048001</v>
       </c>
       <c r="S11">
-        <v>0.0007549796110964214</v>
+        <v>0.002961747900065314</v>
       </c>
       <c r="T11">
-        <v>0.001190352038898708</v>
+        <v>0.004453801325946864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.24529933333333</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H12">
-        <v>39.735898</v>
+        <v>102.121202</v>
       </c>
       <c r="I12">
-        <v>0.138092916326246</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J12">
-        <v>0.1636061722357365</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N12">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O12">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P12">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q12">
-        <v>0.7228622111166667</v>
+        <v>2.888089713762001</v>
       </c>
       <c r="R12">
-        <v>6.50575990005</v>
+        <v>25.992807423858</v>
       </c>
       <c r="S12">
-        <v>0.0003731706219863592</v>
+        <v>0.00227584449720965</v>
       </c>
       <c r="T12">
-        <v>0.0005883661018255375</v>
+        <v>0.003422357196268354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.24529933333333</v>
+        <v>34.04040066666667</v>
       </c>
       <c r="H13">
-        <v>39.735898</v>
+        <v>102.121202</v>
       </c>
       <c r="I13">
-        <v>0.138092916326246</v>
+        <v>0.26524867516054</v>
       </c>
       <c r="J13">
-        <v>0.1636061722357365</v>
+        <v>0.2997857786923061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N13">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O13">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P13">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q13">
-        <v>65.83596343092312</v>
+        <v>79.10001943314002</v>
       </c>
       <c r="R13">
-        <v>592.5236708783081</v>
+        <v>711.9001748982602</v>
       </c>
       <c r="S13">
-        <v>0.03398717908442942</v>
+        <v>0.06233163156195603</v>
       </c>
       <c r="T13">
-        <v>0.05358649071438196</v>
+        <v>0.093732725628994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.1082465</v>
+        <v>1.759442</v>
       </c>
       <c r="H14">
-        <v>2.216493</v>
+        <v>3.518884</v>
       </c>
       <c r="I14">
-        <v>0.01155436259626157</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J14">
-        <v>0.009126053613216551</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N14">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O14">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P14">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q14">
-        <v>16.69034744451</v>
+        <v>12.966116328016</v>
       </c>
       <c r="R14">
-        <v>66.76138977804</v>
+        <v>51.864465312064</v>
       </c>
       <c r="S14">
-        <v>0.00861623037039767</v>
+        <v>0.01021743346637851</v>
       </c>
       <c r="T14">
-        <v>0.006037747974046627</v>
+        <v>0.00682876317270877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.1082465</v>
+        <v>1.759442</v>
       </c>
       <c r="H15">
-        <v>2.216493</v>
+        <v>3.518884</v>
       </c>
       <c r="I15">
-        <v>0.01155436259626157</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J15">
-        <v>0.009126053613216551</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P15">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q15">
-        <v>0.12236519022</v>
+        <v>0.1942658560266666</v>
       </c>
       <c r="R15">
-        <v>0.7341911413199999</v>
+        <v>1.16559513616</v>
       </c>
       <c r="S15">
-        <v>6.31698454306207E-05</v>
+        <v>0.00015308349921655</v>
       </c>
       <c r="T15">
-        <v>6.639857394829014E-05</v>
+        <v>0.0001534687206781331</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.1082465</v>
+        <v>1.759442</v>
       </c>
       <c r="H16">
-        <v>2.216493</v>
+        <v>3.518884</v>
       </c>
       <c r="I16">
-        <v>0.01155436259626157</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J16">
-        <v>0.009126053613216551</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N16">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O16">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P16">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q16">
-        <v>0.0604825527375</v>
+        <v>0.149276337606</v>
       </c>
       <c r="R16">
-        <v>0.362895316425</v>
+        <v>0.8956580256359999</v>
       </c>
       <c r="S16">
-        <v>3.122353261420232E-05</v>
+        <v>0.0001176312944453848</v>
       </c>
       <c r="T16">
-        <v>3.281942555151493E-05</v>
+        <v>0.0001179273034823226</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.1082465</v>
+        <v>1.759442</v>
       </c>
       <c r="H17">
-        <v>2.216493</v>
+        <v>3.518884</v>
       </c>
       <c r="I17">
-        <v>0.01155436259626157</v>
+        <v>0.0137098756296017</v>
       </c>
       <c r="J17">
-        <v>0.009126053613216551</v>
+        <v>0.01032999376630816</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N17">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O17">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P17">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q17">
-        <v>5.508556221363</v>
+        <v>4.08843296982</v>
       </c>
       <c r="R17">
-        <v>33.051337328178</v>
+        <v>24.53059781892</v>
       </c>
       <c r="S17">
-        <v>0.002843738847819076</v>
+        <v>0.00322172736956125</v>
       </c>
       <c r="T17">
-        <v>0.002989087639670119</v>
+        <v>0.003229834569438938</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.21174933333333</v>
+        <v>40.80192266666666</v>
       </c>
       <c r="H18">
-        <v>78.635248</v>
+        <v>122.405768</v>
       </c>
       <c r="I18">
-        <v>0.2732786037038248</v>
+        <v>0.3179356211847997</v>
       </c>
       <c r="J18">
-        <v>0.3237679925614832</v>
+        <v>0.359332907933357</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N18">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O18">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P18">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q18">
-        <v>394.7526146049067</v>
+        <v>300.6876473920213</v>
       </c>
       <c r="R18">
-        <v>2368.51568762944</v>
+        <v>1804.125884352128</v>
       </c>
       <c r="S18">
-        <v>0.2037872176155012</v>
+        <v>0.2369449689998238</v>
       </c>
       <c r="T18">
-        <v>0.2142031620675789</v>
+        <v>0.23754122063857</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.21174933333333</v>
+        <v>40.80192266666666</v>
       </c>
       <c r="H19">
-        <v>78.635248</v>
+        <v>122.405768</v>
       </c>
       <c r="I19">
-        <v>0.2732786037038248</v>
+        <v>0.3179356211847997</v>
       </c>
       <c r="J19">
-        <v>0.3237679925614832</v>
+        <v>0.359332907933357</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>0.33124</v>
       </c>
       <c r="O19">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P19">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q19">
-        <v>2.894126616391111</v>
+        <v>4.505076288035554</v>
       </c>
       <c r="R19">
-        <v>26.04713954752</v>
+        <v>40.54568659232</v>
       </c>
       <c r="S19">
-        <v>0.001494064861790984</v>
+        <v>0.003550046603739368</v>
       </c>
       <c r="T19">
-        <v>0.002355643951625444</v>
+        <v>0.005338469986104787</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.21174933333333</v>
+        <v>40.80192266666666</v>
       </c>
       <c r="H20">
-        <v>78.635248</v>
+        <v>122.405768</v>
       </c>
       <c r="I20">
-        <v>0.2732786037038248</v>
+        <v>0.3179356211847997</v>
       </c>
       <c r="J20">
-        <v>0.3237679925614832</v>
+        <v>0.359332907933357</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N20">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O20">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P20">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q20">
-        <v>1.430506219866667</v>
+        <v>3.461757524808</v>
       </c>
       <c r="R20">
-        <v>12.8745559788</v>
+        <v>31.155817723272</v>
       </c>
       <c r="S20">
-        <v>0.0007384849942541026</v>
+        <v>0.002727900652104751</v>
       </c>
       <c r="T20">
-        <v>0.00116434550772816</v>
+        <v>0.004102147769270818</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.21174933333333</v>
+        <v>40.80192266666666</v>
       </c>
       <c r="H21">
-        <v>78.635248</v>
+        <v>122.405768</v>
       </c>
       <c r="I21">
-        <v>0.2732786037038248</v>
+        <v>0.3179356211847997</v>
       </c>
       <c r="J21">
-        <v>0.3237679925614832</v>
+        <v>0.359332907933357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N21">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O21">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P21">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q21">
-        <v>130.2859019748231</v>
+        <v>94.81183571976</v>
       </c>
       <c r="R21">
-        <v>1172.573117773408</v>
+        <v>853.3065214778401</v>
       </c>
       <c r="S21">
-        <v>0.06725883623227843</v>
+        <v>0.07471270492913182</v>
       </c>
       <c r="T21">
-        <v>0.1060448410345507</v>
+        <v>0.1123510695394115</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.50197566666667</v>
+        <v>9.052525333333334</v>
       </c>
       <c r="H22">
-        <v>34.505927</v>
+        <v>27.157576</v>
       </c>
       <c r="I22">
-        <v>0.1199173626319091</v>
+        <v>0.07053883927621295</v>
       </c>
       <c r="J22">
-        <v>0.1420726073918287</v>
+        <v>0.07972345516022698</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N22">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O22">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P22">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q22">
-        <v>173.2213638165933</v>
+        <v>66.71211471268268</v>
       </c>
       <c r="R22">
-        <v>1039.32818289956</v>
+        <v>400.272688276096</v>
       </c>
       <c r="S22">
-        <v>0.08942385295934463</v>
+        <v>0.05256983480901292</v>
       </c>
       <c r="T22">
-        <v>0.09399447272644254</v>
+        <v>0.05270212227764244</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.50197566666667</v>
+        <v>9.052525333333334</v>
       </c>
       <c r="H23">
-        <v>34.505927</v>
+        <v>27.157576</v>
       </c>
       <c r="I23">
-        <v>0.1199173626319091</v>
+        <v>0.07053883927621295</v>
       </c>
       <c r="J23">
-        <v>0.1420726073918287</v>
+        <v>0.07972345516022698</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>0.33124</v>
       </c>
       <c r="O23">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P23">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q23">
-        <v>1.269971473275555</v>
+        <v>0.9995194971377777</v>
       </c>
       <c r="R23">
-        <v>11.42974325948</v>
+        <v>8.995675474239999</v>
       </c>
       <c r="S23">
-        <v>0.0006556104846801626</v>
+        <v>0.0007876316779826403</v>
       </c>
       <c r="T23">
-        <v>0.001033679937434407</v>
+        <v>0.001184420528053545</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.50197566666667</v>
+        <v>9.052525333333334</v>
       </c>
       <c r="H24">
-        <v>34.505927</v>
+        <v>27.157576</v>
       </c>
       <c r="I24">
-        <v>0.1199173626319091</v>
+        <v>0.07053883927621295</v>
       </c>
       <c r="J24">
-        <v>0.1420726073918287</v>
+        <v>0.07972345516022698</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N24">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O24">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P24">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q24">
-        <v>0.6277203220083334</v>
+        <v>0.768043406856</v>
       </c>
       <c r="R24">
-        <v>5.649482898075</v>
+        <v>6.912390661703999</v>
       </c>
       <c r="S24">
-        <v>0.0003240545423386658</v>
+        <v>0.0006052261301933447</v>
       </c>
       <c r="T24">
-        <v>0.0005109263608152649</v>
+        <v>0.000910123694556638</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.50197566666667</v>
+        <v>9.052525333333334</v>
       </c>
       <c r="H25">
-        <v>34.505927</v>
+        <v>27.157576</v>
       </c>
       <c r="I25">
-        <v>0.1199173626319091</v>
+        <v>0.07053883927621295</v>
       </c>
       <c r="J25">
-        <v>0.1420726073918287</v>
+        <v>0.07972345516022698</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N25">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O25">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P25">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q25">
-        <v>57.17074641479356</v>
+        <v>21.03544364232</v>
       </c>
       <c r="R25">
-        <v>514.536717733142</v>
+        <v>189.31899278088</v>
       </c>
       <c r="S25">
-        <v>0.02951384464554566</v>
+        <v>0.01657614665902404</v>
       </c>
       <c r="T25">
-        <v>0.04653352836713648</v>
+        <v>0.02492678865997437</v>
       </c>
     </row>
   </sheetData>
